--- a/biology/Médecine/Asphyxie_érotique/Asphyxie_érotique.xlsx
+++ b/biology/Médecine/Asphyxie_érotique/Asphyxie_érotique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Asphyxie_%C3%A9rotique</t>
+          <t>Asphyxie_érotique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'asphyxie érotique, souvent nommé choking de sa traduction anglaise, est le fait de priver le cerveau d'un partenaire ou de soi-même d'oxygène dans le but d'en tirer un plaisir sexuel. Dans le cadre des relations BDSM,  elle est pratiquée sous surveillance constante et nommée contrôle de la respiration.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Asphyxie_%C3%A9rotique</t>
+          <t>Asphyxie_érotique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Méthode</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De nombreuses méthodes sont utilisées pour diminuer le niveau d'oxygène dans le sang : la pendaison, la suffocation par placement de la tête dans un sac plastique, la strangulation avec une ligature médicale, l'utilisation de gaz ou de solvants volatils, la compression de la poitrine ou une combinaison de ces méthodes[1]. Parfois, des mécanismes complexes sont mis en place pour arriver à ce but[2]. La plus simple restant d'expirer et de retenir sa respiration.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De nombreuses méthodes sont utilisées pour diminuer le niveau d'oxygène dans le sang : la pendaison, la suffocation par placement de la tête dans un sac plastique, la strangulation avec une ligature médicale, l'utilisation de gaz ou de solvants volatils, la compression de la poitrine ou une combinaison de ces méthodes. Parfois, des mécanismes complexes sont mis en place pour arriver à ce but. La plus simple restant d'expirer et de retenir sa respiration.
 Dans la communauté BDSM, pratiquée avec des couples expérimentés et sérieux ne relâchant jamais une surveillance assidue, avec des accessoires de qualité, la prise de risque est pratiquement nulle. Les accessoires utilisés sont des sacs d'enfermement et variantes accompagnés de masques à gaz.
 </t>
         </is>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Asphyxie_%C3%A9rotique</t>
+          <t>Asphyxie_érotique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,11 +557,13 @@
           <t>Risques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La pratique hors surveillance est dangereuse. En 1995, elle était jugée responsable de 250 à 1 000 morts par an aux États-Unis[3]. Des cas ont aussi été rapportés en Scandinavie[4] et en Allemagne[5],[6].
-La mort auto-érotique arrive souvent lorsque l'individu, pratiquant seul, et donc hors surveillance, arrive à la perte de conscience causée par l'asphyxie et l'amène à la perte de contrôle de la strangulation. L'asphyxie ne pouvant être interrompue par un tiers, la personne décède. Sans surveillance le risque existe[7]. Souvent, les victimes avaient prévu un mécanisme de secours qui a lui aussi fait défaut. Dans certains cas, le corps de la personne asphyxiophilique est retrouvé nu, avec des magazines pornographiques à proximité[8], voire des vibromasseurs et autres jouets sexuels ou avec la preuve d'un orgasme ayant précédé la mort[5]. Sont découvertes aussi, lors des morts accidentelles, des traces d'autres activités paraphiliques[9] telles que le fétichisme, le travestissement et le masochisme[1]. La grande majorité des morts par asphyxie érotique sont des hommes. Parmi tous les cas recensés en Ontario et Alberta entre 1974 et 1987, seulement un sur 117 concernait une femme[1]. Quelques autres femmes ont aussi été retrouvées mortes de la même manière[10],[11],[12],[13]. L'âge moyen de ces morts est le milieu de la vingtaine[1],[14], mais des adolescents ont aussi été retrouvés morts[15],[16],[17] ainsi que des hommes de 70 ans[14],[5].
-Des avocats et compagnies d'assurances se sont intéressés de près à ces cas, car des indemnisations peuvent être reversées en cas de mort accidentelle mais pas de suicide[18],[19],[20].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La pratique hors surveillance est dangereuse. En 1995, elle était jugée responsable de 250 à 1 000 morts par an aux États-Unis. Des cas ont aussi été rapportés en Scandinavie et en Allemagne,.
+La mort auto-érotique arrive souvent lorsque l'individu, pratiquant seul, et donc hors surveillance, arrive à la perte de conscience causée par l'asphyxie et l'amène à la perte de contrôle de la strangulation. L'asphyxie ne pouvant être interrompue par un tiers, la personne décède. Sans surveillance le risque existe. Souvent, les victimes avaient prévu un mécanisme de secours qui a lui aussi fait défaut. Dans certains cas, le corps de la personne asphyxiophilique est retrouvé nu, avec des magazines pornographiques à proximité, voire des vibromasseurs et autres jouets sexuels ou avec la preuve d'un orgasme ayant précédé la mort. Sont découvertes aussi, lors des morts accidentelles, des traces d'autres activités paraphiliques telles que le fétichisme, le travestissement et le masochisme. La grande majorité des morts par asphyxie érotique sont des hommes. Parmi tous les cas recensés en Ontario et Alberta entre 1974 et 1987, seulement un sur 117 concernait une femme. Quelques autres femmes ont aussi été retrouvées mortes de la même manière. L'âge moyen de ces morts est le milieu de la vingtaine mais des adolescents ont aussi été retrouvés morts ainsi que des hommes de 70 ans,.
+Des avocats et compagnies d'assurances se sont intéressés de près à ces cas, car des indemnisations peuvent être reversées en cas de mort accidentelle mais pas de suicide.
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Asphyxie_%C3%A9rotique</t>
+          <t>Asphyxie_érotique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,13 +592,15 @@
           <t>Morts renommées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Henri-Joseph, prince de Bourbon-Condé en aurait été victime en 1830.
 Sada Abe tua son amant, Kichizo Ishida, à l'aide d'une asphyxie érotique en 1936, puis lui coupa les testicules et les garda dans son sac à main pendant plusieurs jours. L'affaire fit sensation dans le Japon du milieu des années 1930 et reste l'un des meurtres les plus célèbres du pays. Le film L'Empire des sens est inspiré de leur histoire.
-Dans le domaine du cinéma et de la télévision, l'acteur Albert Dekker a été retrouvé en 1968 dans sa salle de bains, son corps recouvert de graffitis et un nœud coulant autour du cou. L'acteur américain David Carradine (72 ans) serait mort d'asphyxie érotique dans la nuit du 3 juin 2009 à Bangkok, Thaïlande[21], alors qu'il tournait le film du réalisateur français Charles de Meaux, Stretch qui sortira malgré les trois dernières scènes que Carradine n'a pas eu le temps de tourner. Le présentateur anglais de la BBC Kristian Digby (en), retrouvé sans vie le 1er mars 2010 à son domicile londonien, serait mort par « asphyxie auto-érotique ». Selon le quotidien britannique The Daily Mail, l’animateur de la BBC, âgé d'une trentaine d'années, aurait succombé à « un jeu sexuel solitaire qui a tragiquement mal tourné ». Le film américain World's Greatest Dad réalisé par Bobcat Goldthwait présente le personnage du jeune Kyle Clayton, un adolescent obsédé sexuel qui périra de cette manière.
-Dans le domaine musical, le compositeur Franz Koczwara mourut de cette manière en 1791. L'artiste Vaughn Bodé mourut de cette manière en 1975, ainsi que Kevin Gilbert, auteur-compositeur, musicien et producteur, en 1996[22]. Michael Hutchence, le chanteur d'INXS, serait mort d'asphyxie érotique en 1997, mais le suicide est la cause officielle de son décès[23].
-Stephen Milligan (en) en est mort en 1994[24]. Kristian Etchells, membre du Front national britannique, en est mort lui aussi en 2004[25]. 
+Dans le domaine du cinéma et de la télévision, l'acteur Albert Dekker a été retrouvé en 1968 dans sa salle de bains, son corps recouvert de graffitis et un nœud coulant autour du cou. L'acteur américain David Carradine (72 ans) serait mort d'asphyxie érotique dans la nuit du 3 juin 2009 à Bangkok, Thaïlande, alors qu'il tournait le film du réalisateur français Charles de Meaux, Stretch qui sortira malgré les trois dernières scènes que Carradine n'a pas eu le temps de tourner. Le présentateur anglais de la BBC Kristian Digby (en), retrouvé sans vie le 1er mars 2010 à son domicile londonien, serait mort par « asphyxie auto-érotique ». Selon le quotidien britannique The Daily Mail, l’animateur de la BBC, âgé d'une trentaine d'années, aurait succombé à « un jeu sexuel solitaire qui a tragiquement mal tourné ». Le film américain World's Greatest Dad réalisé par Bobcat Goldthwait présente le personnage du jeune Kyle Clayton, un adolescent obsédé sexuel qui périra de cette manière.
+Dans le domaine musical, le compositeur Franz Koczwara mourut de cette manière en 1791. L'artiste Vaughn Bodé mourut de cette manière en 1975, ainsi que Kevin Gilbert, auteur-compositeur, musicien et producteur, en 1996. Michael Hutchence, le chanteur d'INXS, serait mort d'asphyxie érotique en 1997, mais le suicide est la cause officielle de son décès.
+Stephen Milligan (en) en est mort en 1994. Kristian Etchells, membre du Front national britannique, en est mort lui aussi en 2004. 
 </t>
         </is>
       </c>
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Asphyxie_%C3%A9rotique</t>
+          <t>Asphyxie_érotique</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,9 +629,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les sources les plus anciennes de cette pratique datent du début du XVIIe siècle. Elle a d'abord été utilisée comme traitement de l'impuissance sexuelle[26]. L'idée de soigner l'impuissance par l'asphyxie vient sans doute de l'observation de pendaisons, où les victimes hommes développaient une érection, qui pouvait perdurer après la mort (il était alors question d'érection post mortem), voire aboutir à une éjaculation (et féconder selon certaines légendes des plants de mandragore[27]). Pourtant, ce qui provoque l'éjaculation lors de la pendaison est la relaxation des muscles et ce n'est pas le phénomène recherché par les pratiquants de l'asphyxie érotique.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les sources les plus anciennes de cette pratique datent du début du XVIIe siècle. Elle a d'abord été utilisée comme traitement de l'impuissance sexuelle. L'idée de soigner l'impuissance par l'asphyxie vient sans doute de l'observation de pendaisons, où les victimes hommes développaient une érection, qui pouvait perdurer après la mort (il était alors question d'érection post mortem), voire aboutir à une éjaculation (et féconder selon certaines légendes des plants de mandragore). Pourtant, ce qui provoque l'éjaculation lors de la pendaison est la relaxation des muscles et ce n'est pas le phénomène recherché par les pratiquants de l'asphyxie érotique.
 </t>
         </is>
       </c>
